--- a/osr_Master_parts_list.xlsx
+++ b/osr_Master_parts_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejunkins\Desktop\JPL Open Source Rover\open-source-rover\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejunkins\Desktop\open-source-rover\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2009,8 +2009,8 @@
   <dimension ref="A1:AA970"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L50" sqref="L50"/>
+      <pane ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
